--- a/RVD_Predictor_Analysis/results/ExcelFiles/H3N2_Rhinovirus_Intersection.xlsx
+++ b/RVD_Predictor_Analysis/results/ExcelFiles/H3N2_Rhinovirus_Intersection.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">ARHGEF12</t>
   </si>
@@ -23,6 +23,9 @@
     <t xml:space="preserve">CA2</t>
   </si>
   <si>
+    <t xml:space="preserve">CRAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">GM2A</t>
   </si>
   <si>
@@ -32,12 +35,21 @@
     <t xml:space="preserve">ABCB4</t>
   </si>
   <si>
+    <t xml:space="preserve">HIST3H2A</t>
+  </si>
+  <si>
     <t xml:space="preserve">ACP5</t>
   </si>
   <si>
+    <t xml:space="preserve">CD36</t>
+  </si>
+  <si>
     <t xml:space="preserve">CDKAL1</t>
   </si>
   <si>
+    <t xml:space="preserve">CTSB</t>
+  </si>
+  <si>
     <t xml:space="preserve">F2RL1</t>
   </si>
   <si>
@@ -60,6 +72,9 @@
   </si>
   <si>
     <t xml:space="preserve">UQCRB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD8A</t>
   </si>
   <si>
     <t xml:space="preserve">CDKN1C</t>
@@ -479,6 +494,31 @@
         <v>16</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
